--- a/FNNR_ABM/2014_survey_validation_edited.xlsx
+++ b/FNNR_ABM/2014_survey_validation_edited.xlsx
@@ -820,13 +820,13 @@
   </sheetPr>
   <dimension ref="A1:DO21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,7 +1209,7 @@
         <v>121</v>
       </c>
       <c r="H2" s="7" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>-3</v>
